--- a/data/processed/continent_df.xlsx
+++ b/data/processed/continent_df.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>112.0941954248603</v>
+        <v>49.60100701765084</v>
       </c>
       <c r="D2" t="n">
         <v>0.7782956970183611</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256.1765130985075</v>
+        <v>115.3681481465006</v>
       </c>
       <c r="D3" t="n">
         <v>1.725668455454326</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-11.79371814758323</v>
+        <v>-5.472398080593008</v>
       </c>
       <c r="D4" t="n">
         <v>0.1287313130712185</v>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43.33305274065552</v>
+        <v>19.59822815611181</v>
       </c>
       <c r="D5" t="n">
         <v>0.7418484223800728</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13.5431542820014</v>
+        <v>6.076669252532886</v>
       </c>
       <c r="D6" t="n">
         <v>0.5350812599375894</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.72939439731955</v>
+        <v>1.242038113185493</v>
       </c>
       <c r="D7" t="n">
         <v>0.2698703991329864</v>

--- a/data/processed/continent_df.xlsx
+++ b/data/processed/continent_df.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.60100701765084</v>
+        <v>180.789157331046</v>
       </c>
       <c r="D2" t="n">
         <v>0.7782956970183611</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115.3681481465006</v>
+        <v>420.5017506766929</v>
       </c>
       <c r="D3" t="n">
         <v>1.725668455454326</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.472398080593008</v>
+        <v>-19.94617240771698</v>
       </c>
       <c r="D4" t="n">
         <v>0.1287313130712185</v>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.59822815611181</v>
+        <v>71.43296813034826</v>
       </c>
       <c r="D5" t="n">
         <v>0.7418484223800728</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.076669252532886</v>
+        <v>22.14866148088394</v>
       </c>
       <c r="D6" t="n">
         <v>0.5350812599375894</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.242038113185493</v>
+        <v>4.527065827029297</v>
       </c>
       <c r="D7" t="n">
         <v>0.2698703991329864</v>

--- a/data/processed/continent_df.xlsx
+++ b/data/processed/continent_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,65 +456,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SLAND_corrected</t>
+          <t>ELUC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SLAND_dor</t>
+          <t>EFOS</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ELUC</t>
+          <t>F_ab</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>EFOS</t>
+          <t>F_ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>F_ab</t>
+          <t>F_abc</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>F_ac</t>
+          <t>economic_group</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>F_abc</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>F_ab_cor</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>F_abc_cor</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>F_ab_dor</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>F_abc_dor</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>economic_group</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>climate_zone</t>
         </is>
@@ -528,56 +498,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGOBDIBENBFABWACAFCIVCMRCODCOGCOMCPVDJIDZAEGYERIETHGABGHAGINGMBGNBGNQKENLBRLBYLSOMARMDGMLIMOZMRTMUSMWINAMNERNGARWASDNSENSLESOMSSDSTPSWZSYCTCDTGOTUNTZAUGAZAFZMBZWE</t>
+          <t>AGOBDIBENBFABWACAFCIVCMRCODCOGCOMCPVDJIDZAEGYERIETHGABGHAGINGMBGNBGNQKENLBRLBYLSOMARMDGMLIMOZMRTMUSMWINAMNERNGARWASDNSENSLESOMSOMSSDSTPSWZTCDTGOTUNTZAUGAZAFZMBZWE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>180.789157331046</v>
+        <v>176.3343492289424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7782956970183611</v>
+        <v>0.7245317697525024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5913281952833386</v>
+        <v>-0.37219005425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.48423629632886</v>
+        <v>-0.357894456830619</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3535082974999994</v>
+        <v>0.3523417224354953</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3624338349552614</v>
+        <v>-0.730084511080619</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4247873995183607</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.7159421324552613</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06235356456309647</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.2378198977833395</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.1246139371719231</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.1307279988288596</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.2317058361264031</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>LDCLDCLDCLDCOtherLDCOtherOtherLDCOtherLDCOtherLDCOtherBRICSLDCBRICSOtherOtherLDCLDCLDCOtherOtherLDCOtherLDCOtherLDCLDCLDCOtherOtherLDCOtherLDCOtherLDCOtherLDCLDCOtherLDCLDCLDCOtherLDCLDCOtherLDCLDCBRICSLDCLDC</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>111121111112222211111111122212121122112112211121211212</t>
+        <v>-0.00555273439512376</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>LDCLDCLDCLDCOtherLDCOtherOtherLDCOtherLDCOtherLDCOtherBRICSLDCBRICSOtherOtherLDCLDCLDCOtherOtherLDCOtherLDCOtherLDCLDCLDCOtherOtherLDCOtherLDCOtherLDCOtherLDCLDCOtherOtherLDCLDCLDCLDCLDCOtherLDCLDCBRICSLDCLDC</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111121111112222211111111122212121122112112221121211212</t>
         </is>
       </c>
     </row>
@@ -589,56 +541,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AFGAREARMAZEBGDBHRBRNBTNCHNCYPGEOIDNINDIRNIRQISRJORJPNKAZKGZKHMKORKWTLAOLBNLKAMDVMMRMNGMYSNPLOMNPAKPHLPRKPSEQATRUSSAUSGPSYRTHATJKTKMTLSTURUZBVNMYEM</t>
+          <t>AFGAREARMAZEBGDBRNBTNCHNCYPGEOIDNINDIRNIRQISRJORJPNKAZKGZKHMKORKWTLAOLBNLKAMMRMNGMYSNPLOMNPAKPHLPRKPSEQATRUSSAUSYRTHATJKTKMTLSTURUZBVNMYEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>420.5017506766929</v>
+        <v>409.9114079969629</v>
       </c>
       <c r="D3" t="n">
-        <v>1.725668455454326</v>
+        <v>1.23817253112793</v>
       </c>
       <c r="E3" t="n">
-        <v>1.311116606876374</v>
+        <v>-0.36132231</v>
       </c>
       <c r="F3" t="n">
-        <v>1.013841059851299</v>
+        <v>-5.809045108948109</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3426269304999999</v>
+        <v>0.8768502678982399</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.945446963379839</v>
+        <v>-6.170367418948108</v>
       </c>
       <c r="I3" t="n">
-        <v>1.383041524954326</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-6.288073893879839</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-4.562405438425515</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9684896763763738</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-4.976957287003465</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.6712141293512982</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-5.274232834028542</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>LDCBRICSOtherOtherOtherOtherOtherOtherBRICSOtherOtherOtherBRICSBRICSOtherOECDOtherOECDOtherOtherLDCOECDOtherLDCOtherOtherOtherLDCOtherOtherOtherOtherOtherOtherOtherOtherOtherBRICSOtherOtherOtherOtherOtherOtherLDCOECDOtherOtherOther</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>4244121443411222234413213111414221422521214214412</t>
+        <v>-4.932194841049868</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>LDCBRICSOtherOtherOtherOtherOtherBRICSOtherOtherOtherBRICSBRICSOtherOECDOtherOECDOtherOtherLDCOECDOtherLDCOtherOtherLDCOtherOtherOtherOtherOtherOtherOtherOtherOtherBRICSOtherOtherOtherOtherOtherLDCOECDOtherOtherOther</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4244114434112222344132131141422142252214214412</t>
         </is>
       </c>
     </row>
@@ -650,56 +584,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALBANDAUTBELBGRBIHBLRCHECZEDEUDNKESPESTFINFRAGBRGRCHRVHUNIRLISLITALIELTULUXLVAMDAMKDMLTMNENLDNORPOLPRTROUSRBSVKSVNSWEUKR</t>
+          <t>ALBAUTBELBGRBIHBLRCHECZEDEUDNKESPESTFINFRAGBRGRCHRVHUNIRLISLITALTULUXLVAMDAMKDMNENLDNORPOLPRTROUSRBSVKSVNSWEUKR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-19.94617240771698</v>
+        <v>-19.44382776680462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1287313130712185</v>
+        <v>0.1197896003723145</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09780659886272149</v>
+        <v>0.02725090325</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1588712462884626</v>
+        <v>-1.035789632326314</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0267564237499998</v>
+        <v>0.1470405011121091</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.008472296578782</v>
+        <v>-1.008538729076314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1554877368212181</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.9817158728287821</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-0.8529845597575639</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1245630226127218</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.8839092739660594</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1856276700384616</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-0.8228446265403196</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>OtherOtherOECDOECDOtherOtherOtherOECDOECDOECDOECDOECDOECDOECDOECDOECDOECDOtherOECDOECDOECDOECDOtherOECDOECDOECDOtherOtherOtherOtherOECDOECDOECDOECDOtherOtherOECDOECDOECDOther</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>3333334333334433333353343443333543333344</t>
+        <v>-0.8887491312142051</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>OtherOECDOECDOtherOtherOtherOECDOECDOECDOECDOECDOECDOECDOECDOECDOECDOtherOECDOECDOECDOECDOECDOECDOECDOtherOtherOtherOECDOECDOECDOECDOtherOtherOECDOECDOECDOther</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3333343333344333333534344333543333344</t>
         </is>
       </c>
     </row>
@@ -711,56 +627,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARGATGBHSBLZBOLBRABRBCHLCOLCRICUBDMADOMECUGRDGTMGUYHNDHTIJAMKNALCAMEXNICPANPERPRYSLVSURTTOURYVCTVEN</t>
+          <t>ARGBHSBLZBOLBRACHLCOLCRICUBDOMECUGTMGUYHNDHTIJAMMEXNICPANPERPRYSLVSURTTOURYVCTVEN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71.43296813034826</v>
+        <v>69.63392779362381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7418484223800728</v>
+        <v>0.6940719485282898</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5636365335956008</v>
+        <v>-0.4263971400000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8180969101857806</v>
+        <v>-0.4686550021483723</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4158097319999997</v>
+        <v>0.2676748212739485</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4663126711545928</v>
+        <v>-0.8950521421483724</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3260386903800725</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.8821224031545929</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.1402739807745216</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1478268015956011</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.318485869558992</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.4022871781857801</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-0.06402549296881298</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>OtherOtherOtherOtherOtherBRICSOtherOECDOECDOECDOtherOtherOtherOtherOtherOtherOtherOtherLDCOtherOtherOtherOECDOtherOtherOtherOtherOtherOtherOtherOtherOtherOther</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>111111121111111111111111111111111</t>
+        <v>-0.2009801808744238</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OtherOtherOtherOtherBRICSOECDOECDOECDOtherOtherOtherOtherOtherOtherLDCOtherOECDOtherOtherOtherOtherOtherOtherOtherOtherOtherOther</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111112111111111111111111111</t>
         </is>
       </c>
     </row>
@@ -776,50 +674,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.14866148088394</v>
+        <v>21.59084712077145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5350812599375894</v>
+        <v>0.5105834603309631</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4065403894445099</v>
+        <v>-0.02196698900000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3868958828443246</v>
+        <v>-1.580879659226444</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0267930502500001</v>
+        <v>0.4886164564298019</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.564875241892031</v>
+        <v>-1.602846648226444</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5082882096875894</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-1.591668292142031</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-1.056587032204441</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3797473391945099</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-1.185127902697521</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.3601028325943245</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-1.204772409297706</v>
-      </c>
-      <c r="P6" t="inlineStr">
+        <v>-1.092263202796642</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>OECDOECD</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>53</t>
         </is>
@@ -833,56 +713,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUSCOKFJIFSMKIRMHLNIUNRUNZLPLWPNGSLBTONTUVVUTWSM</t>
+          <t>AUSCOKFJIKIRNZLPNGSLBVUTWSM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.527065827029297</v>
+        <v>4.413051608622875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2698703991329864</v>
+        <v>0.08273434638977051</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2050402908445457</v>
+        <v>-0.01988379875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1261547485198664</v>
+        <v>-0.1217305771283392</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0190684705000001</v>
+        <v>0.06285054773168632</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1214232145828616</v>
+        <v>-0.1416143758783392</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2508019286329861</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.1404916850828615</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1293787140501241</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1859718203445457</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.06454860576168434</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1070862780198663</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-0.01433693656299542</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>OECDOtherOtherOtherOtherOtherOtherOtherOECDOtherOtherOtherOtherOtherOtherOther</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2111111131111111</t>
+        <v>-0.05888002939665294</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OECDOtherOtherOtherOECDOtherOtherOtherOther</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>211131111</t>
         </is>
       </c>
     </row>

--- a/data/processed/continent_df.xlsx
+++ b/data/processed/continent_df.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>176.3343492289424</v>
+        <v>168.0895110834317</v>
       </c>
       <c r="D2" t="n">
         <v>0.7245317697525024</v>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>409.9114079969629</v>
+        <v>384.8156396386887</v>
       </c>
       <c r="D3" t="n">
         <v>1.23817253112793</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-19.44382776680462</v>
+        <v>-20.16360784324443</v>
       </c>
       <c r="D4" t="n">
         <v>0.1197896003723145</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69.63392779362381</v>
+        <v>65.457732028926</v>
       </c>
       <c r="D5" t="n">
         <v>0.6940719485282898</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.59084712077145</v>
+        <v>19.6540462783722</v>
       </c>
       <c r="D6" t="n">
         <v>0.5105834603309631</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.413051608622875</v>
+        <v>4.153262965691475</v>
       </c>
       <c r="D7" t="n">
         <v>0.08273434638977051</v>
